--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2227,28 +2227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1612.282926268649</v>
+        <v>1856.894472800872</v>
       </c>
       <c r="AB2" t="n">
-        <v>2205.996628623446</v>
+        <v>2540.684938088641</v>
       </c>
       <c r="AC2" t="n">
-        <v>1995.459406523337</v>
+        <v>2298.205533471167</v>
       </c>
       <c r="AD2" t="n">
-        <v>1612282.926268649</v>
+        <v>1856894.472800872</v>
       </c>
       <c r="AE2" t="n">
-        <v>2205996.628623446</v>
+        <v>2540684.938088641</v>
       </c>
       <c r="AF2" t="n">
         <v>3.184882920129137e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.28385416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1995459.406523337</v>
+        <v>2298205.533471167</v>
       </c>
     </row>
     <row r="3">
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>816.2433697865674</v>
+        <v>972.7582248856555</v>
       </c>
       <c r="AB3" t="n">
-        <v>1116.820188657991</v>
+        <v>1330.970718352643</v>
       </c>
       <c r="AC3" t="n">
-        <v>1010.232437319451</v>
+        <v>1203.944741022202</v>
       </c>
       <c r="AD3" t="n">
-        <v>816243.3697865674</v>
+        <v>972758.2248856556</v>
       </c>
       <c r="AE3" t="n">
-        <v>1116820.188657991</v>
+        <v>1330970.718352643</v>
       </c>
       <c r="AF3" t="n">
         <v>4.998754624848812e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.39973958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1010232.437319451</v>
+        <v>1203944.741022202</v>
       </c>
     </row>
     <row r="4">
@@ -2439,28 +2439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>656.7910243358482</v>
+        <v>793.7288368942399</v>
       </c>
       <c r="AB4" t="n">
-        <v>898.6504550713084</v>
+        <v>1086.014811483619</v>
       </c>
       <c r="AC4" t="n">
-        <v>812.8845169031373</v>
+        <v>982.3670821069821</v>
       </c>
       <c r="AD4" t="n">
-        <v>656791.0243358482</v>
+        <v>793728.8368942399</v>
       </c>
       <c r="AE4" t="n">
-        <v>898650.4550713084</v>
+        <v>1086014.811483619</v>
       </c>
       <c r="AF4" t="n">
         <v>5.71957817576745e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.44140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>812884.5169031373</v>
+        <v>982367.0821069821</v>
       </c>
     </row>
     <row r="5">
@@ -2545,28 +2545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>586.4569932485423</v>
+        <v>723.4279601958576</v>
       </c>
       <c r="AB5" t="n">
-        <v>802.4163308191979</v>
+        <v>989.8260505291016</v>
       </c>
       <c r="AC5" t="n">
-        <v>725.8348424042065</v>
+        <v>895.3584414961906</v>
       </c>
       <c r="AD5" t="n">
-        <v>586456.9932485423</v>
+        <v>723427.9601958576</v>
       </c>
       <c r="AE5" t="n">
-        <v>802416.3308191979</v>
+        <v>989826.0505291016</v>
       </c>
       <c r="AF5" t="n">
         <v>6.039729906744023e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.98958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>725834.8424042065</v>
+        <v>895358.4414961906</v>
       </c>
     </row>
     <row r="6">
@@ -2651,28 +2651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>587.6062225662049</v>
+        <v>724.5771895135201</v>
       </c>
       <c r="AB6" t="n">
-        <v>803.9887570720434</v>
+        <v>991.398476781947</v>
       </c>
       <c r="AC6" t="n">
-        <v>727.2571985023943</v>
+        <v>896.7807975943783</v>
       </c>
       <c r="AD6" t="n">
-        <v>587606.222566205</v>
+        <v>724577.1895135201</v>
       </c>
       <c r="AE6" t="n">
-        <v>803988.7570720434</v>
+        <v>991398.476781947</v>
       </c>
       <c r="AF6" t="n">
         <v>6.050819499835077e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.9375</v>
       </c>
       <c r="AH6" t="n">
-        <v>727257.1985023944</v>
+        <v>896780.7975943784</v>
       </c>
     </row>
   </sheetData>
@@ -2948,28 +2948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1162.761179374663</v>
+        <v>1365.951226300448</v>
       </c>
       <c r="AB2" t="n">
-        <v>1590.941143023259</v>
+        <v>1868.954729339333</v>
       </c>
       <c r="AC2" t="n">
-        <v>1439.103953233037</v>
+        <v>1690.584313065624</v>
       </c>
       <c r="AD2" t="n">
-        <v>1162761.179374663</v>
+        <v>1365951.226300448</v>
       </c>
       <c r="AE2" t="n">
-        <v>1590941.143023259</v>
+        <v>1868954.729339333</v>
       </c>
       <c r="AF2" t="n">
         <v>4.14747324222618e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.40625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1439103.953233037</v>
+        <v>1690584.313065624</v>
       </c>
     </row>
     <row r="3">
@@ -3054,28 +3054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>660.9611483439447</v>
+        <v>806.1352201767855</v>
       </c>
       <c r="AB3" t="n">
-        <v>904.356202712073</v>
+        <v>1102.989772421799</v>
       </c>
       <c r="AC3" t="n">
-        <v>818.0457159971344</v>
+        <v>997.7219765977303</v>
       </c>
       <c r="AD3" t="n">
-        <v>660961.1483439447</v>
+        <v>806135.2201767855</v>
       </c>
       <c r="AE3" t="n">
-        <v>904356.202712073</v>
+        <v>1102989.772421799</v>
       </c>
       <c r="AF3" t="n">
         <v>5.969955760227876e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.76953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>818045.7159971343</v>
+        <v>997721.9765977303</v>
       </c>
     </row>
     <row r="4">
@@ -3160,28 +3160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>569.0720751206915</v>
+        <v>694.8518942643925</v>
       </c>
       <c r="AB4" t="n">
-        <v>778.6295188682145</v>
+        <v>950.7270164346172</v>
       </c>
       <c r="AC4" t="n">
-        <v>704.3182104008247</v>
+        <v>859.9909643398446</v>
       </c>
       <c r="AD4" t="n">
-        <v>569072.0751206914</v>
+        <v>694851.8942643926</v>
       </c>
       <c r="AE4" t="n">
-        <v>778629.5188682146</v>
+        <v>950727.0164346172</v>
       </c>
       <c r="AF4" t="n">
         <v>6.520472624472999e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.34114583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>704318.2104008247</v>
+        <v>859990.9643398446</v>
       </c>
     </row>
     <row r="5">
@@ -3266,28 +3266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>569.6806131901013</v>
+        <v>695.4604323338024</v>
       </c>
       <c r="AB5" t="n">
-        <v>779.4621475015861</v>
+        <v>951.5596450679886</v>
       </c>
       <c r="AC5" t="n">
-        <v>705.071374126029</v>
+        <v>860.7441280650489</v>
       </c>
       <c r="AD5" t="n">
-        <v>569680.6131901013</v>
+        <v>695460.4323338023</v>
       </c>
       <c r="AE5" t="n">
-        <v>779462.147501586</v>
+        <v>951559.6450679887</v>
       </c>
       <c r="AF5" t="n">
         <v>6.5289137072022e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.30208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>705071.374126029</v>
+        <v>860744.1280650489</v>
       </c>
     </row>
   </sheetData>
@@ -3563,28 +3563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>547.9528066736351</v>
+        <v>688.1835475430477</v>
       </c>
       <c r="AB2" t="n">
-        <v>749.7332040625857</v>
+        <v>941.6030902637785</v>
       </c>
       <c r="AC2" t="n">
-        <v>678.1797193240125</v>
+        <v>851.7378128772401</v>
       </c>
       <c r="AD2" t="n">
-        <v>547952.8066736351</v>
+        <v>688183.5475430477</v>
       </c>
       <c r="AE2" t="n">
-        <v>749733.2040625857</v>
+        <v>941603.0902637786</v>
       </c>
       <c r="AF2" t="n">
         <v>8.16818523917041e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.34895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>678179.7193240125</v>
+        <v>851737.8128772401</v>
       </c>
     </row>
     <row r="3">
@@ -3669,28 +3669,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>543.962841508396</v>
+        <v>684.1935823778086</v>
       </c>
       <c r="AB3" t="n">
-        <v>744.2739576986655</v>
+        <v>936.1438438998587</v>
       </c>
       <c r="AC3" t="n">
-        <v>673.2414957709647</v>
+        <v>846.7995893241923</v>
       </c>
       <c r="AD3" t="n">
-        <v>543962.841508396</v>
+        <v>684193.5823778086</v>
       </c>
       <c r="AE3" t="n">
-        <v>744273.9576986656</v>
+        <v>936143.8438998586</v>
       </c>
       <c r="AF3" t="n">
         <v>8.242926803450398e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.08203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>673241.4957709647</v>
+        <v>846799.5893241923</v>
       </c>
     </row>
   </sheetData>
@@ -3966,28 +3966,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>696.5421613044488</v>
+        <v>848.1959635524065</v>
       </c>
       <c r="AB2" t="n">
-        <v>953.0397143681413</v>
+        <v>1160.53913709736</v>
       </c>
       <c r="AC2" t="n">
-        <v>862.0829416284852</v>
+        <v>1049.778910679697</v>
       </c>
       <c r="AD2" t="n">
-        <v>696542.1613044487</v>
+        <v>848195.9635524065</v>
       </c>
       <c r="AE2" t="n">
-        <v>953039.7143681413</v>
+        <v>1160539.137097361</v>
       </c>
       <c r="AF2" t="n">
         <v>6.468468668801036e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.08984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>862082.9416284852</v>
+        <v>1049778.910679697</v>
       </c>
     </row>
     <row r="3">
@@ -4072,28 +4072,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>540.4882188196634</v>
+        <v>673.2442006183679</v>
       </c>
       <c r="AB3" t="n">
-        <v>739.5198256464072</v>
+        <v>921.1624167239606</v>
       </c>
       <c r="AC3" t="n">
-        <v>668.9410914093074</v>
+        <v>833.247968531397</v>
       </c>
       <c r="AD3" t="n">
-        <v>540488.2188196634</v>
+        <v>673244.2006183679</v>
       </c>
       <c r="AE3" t="n">
-        <v>739519.8256464072</v>
+        <v>921162.4167239607</v>
       </c>
       <c r="AF3" t="n">
         <v>7.534058568299879e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.55208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>668941.0914093074</v>
+        <v>833247.9685313969</v>
       </c>
     </row>
   </sheetData>
@@ -4369,28 +4369,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>556.1367324864398</v>
+        <v>704.0551383187894</v>
       </c>
       <c r="AB2" t="n">
-        <v>760.9308124089902</v>
+        <v>963.3193009683151</v>
       </c>
       <c r="AC2" t="n">
-        <v>688.308643645778</v>
+        <v>871.381458911029</v>
       </c>
       <c r="AD2" t="n">
-        <v>556136.7324864398</v>
+        <v>704055.1383187894</v>
       </c>
       <c r="AE2" t="n">
-        <v>760930.8124089901</v>
+        <v>963319.3009683151</v>
       </c>
       <c r="AF2" t="n">
         <v>8.785817543930013e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>688308.6436457781</v>
+        <v>871381.4589110289</v>
       </c>
     </row>
   </sheetData>
@@ -4666,28 +4666,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1262.535111282894</v>
+        <v>1476.030057430598</v>
       </c>
       <c r="AB2" t="n">
-        <v>1727.45623837532</v>
+        <v>2019.569442426891</v>
       </c>
       <c r="AC2" t="n">
-        <v>1562.590239484836</v>
+        <v>1826.824569325182</v>
       </c>
       <c r="AD2" t="n">
-        <v>1262535.111282894</v>
+        <v>1476030.057430598</v>
       </c>
       <c r="AE2" t="n">
-        <v>1727456.23837532</v>
+        <v>2019569.442426891</v>
       </c>
       <c r="AF2" t="n">
         <v>3.879705962005743e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.19661458333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1562590.239484836</v>
+        <v>1826824.569325182</v>
       </c>
     </row>
     <row r="3">
@@ -4772,28 +4772,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>702.2422416862943</v>
+        <v>847.7746869422107</v>
       </c>
       <c r="AB3" t="n">
-        <v>960.8388158163807</v>
+        <v>1159.962727853878</v>
       </c>
       <c r="AC3" t="n">
-        <v>869.1377077806122</v>
+        <v>1049.257513125417</v>
       </c>
       <c r="AD3" t="n">
-        <v>702242.2416862943</v>
+        <v>847774.6869422107</v>
       </c>
       <c r="AE3" t="n">
-        <v>960838.8158163807</v>
+        <v>1159962.727853878</v>
       </c>
       <c r="AF3" t="n">
         <v>5.692912490427216e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.44010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>869137.7077806123</v>
+        <v>1049257.513125417</v>
       </c>
     </row>
     <row r="4">
@@ -4878,28 +4878,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>581.2141860441054</v>
+        <v>707.362939321149</v>
       </c>
       <c r="AB4" t="n">
-        <v>795.2428907057578</v>
+        <v>967.8451802296247</v>
       </c>
       <c r="AC4" t="n">
-        <v>719.3460253472065</v>
+        <v>875.4753946077506</v>
       </c>
       <c r="AD4" t="n">
-        <v>581214.1860441054</v>
+        <v>707362.939321149</v>
       </c>
       <c r="AE4" t="n">
-        <v>795242.8907057578</v>
+        <v>967845.1802296247</v>
       </c>
       <c r="AF4" t="n">
         <v>6.347509906920091e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.39973958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>719346.0253472065</v>
+        <v>875475.3946077506</v>
       </c>
     </row>
     <row r="5">
@@ -4984,28 +4984,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>575.4872883401329</v>
+        <v>701.6360416171765</v>
       </c>
       <c r="AB5" t="n">
-        <v>787.4070966142871</v>
+        <v>960.0093861381541</v>
       </c>
       <c r="AC5" t="n">
-        <v>712.2580684462199</v>
+        <v>868.3874377067639</v>
       </c>
       <c r="AD5" t="n">
-        <v>575487.2883401329</v>
+        <v>701636.0416171765</v>
       </c>
       <c r="AE5" t="n">
-        <v>787407.0966142871</v>
+        <v>960009.3861381541</v>
       </c>
       <c r="AF5" t="n">
         <v>6.401308908118287e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.17838541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>712258.0684462199</v>
+        <v>868387.4377067639</v>
       </c>
     </row>
   </sheetData>
@@ -5281,28 +5281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>576.0323793510627</v>
+        <v>732.1527062977619</v>
       </c>
       <c r="AB2" t="n">
-        <v>788.1529141831596</v>
+        <v>1001.76363305436</v>
       </c>
       <c r="AC2" t="n">
-        <v>712.9327062330807</v>
+        <v>906.1567178997404</v>
       </c>
       <c r="AD2" t="n">
-        <v>576032.3793510627</v>
+        <v>732152.706297762</v>
       </c>
       <c r="AE2" t="n">
-        <v>788152.9141831596</v>
+        <v>1001763.63305436</v>
       </c>
       <c r="AF2" t="n">
         <v>9.06928328236052e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>712932.7062330807</v>
+        <v>906156.7178997404</v>
       </c>
     </row>
   </sheetData>
@@ -5578,28 +5578,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>906.8449899492192</v>
+        <v>1088.991256418706</v>
       </c>
       <c r="AB2" t="n">
-        <v>1240.785322425914</v>
+        <v>1490.005879935609</v>
       </c>
       <c r="AC2" t="n">
-        <v>1122.366512706721</v>
+        <v>1347.801809990941</v>
       </c>
       <c r="AD2" t="n">
-        <v>906844.9899492192</v>
+        <v>1088991.256418706</v>
       </c>
       <c r="AE2" t="n">
-        <v>1240785.322425914</v>
+        <v>1490005.879935609</v>
       </c>
       <c r="AF2" t="n">
         <v>5.11587600783162e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.50390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1122366.512706721</v>
+        <v>1347801.809990941</v>
       </c>
     </row>
     <row r="3">
@@ -5684,28 +5684,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>569.4118671381012</v>
+        <v>703.5485948819188</v>
       </c>
       <c r="AB3" t="n">
-        <v>779.0944372970006</v>
+        <v>962.6262258908696</v>
       </c>
       <c r="AC3" t="n">
-        <v>704.7387576672844</v>
+        <v>870.7545299462378</v>
       </c>
       <c r="AD3" t="n">
-        <v>569411.8671381013</v>
+        <v>703548.5948819187</v>
       </c>
       <c r="AE3" t="n">
-        <v>779094.4372970005</v>
+        <v>962626.2258908696</v>
       </c>
       <c r="AF3" t="n">
         <v>6.872414731310024e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.17447916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>704738.7576672845</v>
+        <v>870754.5299462378</v>
       </c>
     </row>
     <row r="4">
@@ -5790,28 +5790,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>548.9977726531777</v>
+        <v>683.2018202046995</v>
       </c>
       <c r="AB4" t="n">
-        <v>751.1629726164408</v>
+        <v>934.7868711411516</v>
       </c>
       <c r="AC4" t="n">
-        <v>679.4730327737807</v>
+        <v>845.572124141053</v>
       </c>
       <c r="AD4" t="n">
-        <v>548997.7726531776</v>
+        <v>683201.8202046995</v>
       </c>
       <c r="AE4" t="n">
-        <v>751162.9726164408</v>
+        <v>934786.8711411515</v>
       </c>
       <c r="AF4" t="n">
         <v>6.982270108692818e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.74479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>679473.0327737806</v>
+        <v>845572.1241410529</v>
       </c>
     </row>
   </sheetData>
@@ -6087,28 +6087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1067.866097360551</v>
+        <v>1270.470665625018</v>
       </c>
       <c r="AB2" t="n">
-        <v>1461.101505336</v>
+        <v>1738.314013918163</v>
       </c>
       <c r="AC2" t="n">
-        <v>1321.656028335573</v>
+        <v>1572.411764168855</v>
       </c>
       <c r="AD2" t="n">
-        <v>1067866.097360551</v>
+        <v>1270470.665625019</v>
       </c>
       <c r="AE2" t="n">
-        <v>1461101.505336</v>
+        <v>1738314.013918163</v>
       </c>
       <c r="AF2" t="n">
         <v>4.443672444276681e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.66796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1321656.028335573</v>
+        <v>1572411.764168855</v>
       </c>
     </row>
     <row r="3">
@@ -6193,28 +6193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>629.7226873024139</v>
+        <v>764.7706335627286</v>
       </c>
       <c r="AB3" t="n">
-        <v>861.6143621714141</v>
+        <v>1046.392920139679</v>
       </c>
       <c r="AC3" t="n">
-        <v>779.3830967291258</v>
+        <v>946.5266484632341</v>
       </c>
       <c r="AD3" t="n">
-        <v>629722.6873024139</v>
+        <v>764770.6335627285</v>
       </c>
       <c r="AE3" t="n">
-        <v>861614.3621714141</v>
+        <v>1046392.920139679</v>
       </c>
       <c r="AF3" t="n">
         <v>6.268737694192547e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.11848958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>779383.0967291258</v>
+        <v>946526.6484632341</v>
       </c>
     </row>
     <row r="4">
@@ -6299,28 +6299,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>561.3605401994482</v>
+        <v>686.7573960263333</v>
       </c>
       <c r="AB4" t="n">
-        <v>768.0782565800598</v>
+        <v>939.6517668412454</v>
       </c>
       <c r="AC4" t="n">
-        <v>694.7739457766619</v>
+        <v>849.9727210234539</v>
       </c>
       <c r="AD4" t="n">
-        <v>561360.5401994482</v>
+        <v>686757.3960263332</v>
       </c>
       <c r="AE4" t="n">
-        <v>768078.2565800598</v>
+        <v>939651.7668412453</v>
       </c>
       <c r="AF4" t="n">
         <v>6.677556642030102e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.39322916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>694773.9457766619</v>
+        <v>849972.7210234539</v>
       </c>
     </row>
     <row r="5">
@@ -6405,28 +6405,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>562.8189253258062</v>
+        <v>688.215781152691</v>
       </c>
       <c r="AB5" t="n">
-        <v>770.0736834493536</v>
+        <v>941.647193710539</v>
       </c>
       <c r="AC5" t="n">
-        <v>696.5789319061493</v>
+        <v>851.7777071529413</v>
       </c>
       <c r="AD5" t="n">
-        <v>562818.9253258061</v>
+        <v>688215.781152691</v>
       </c>
       <c r="AE5" t="n">
-        <v>770073.6834493536</v>
+        <v>941647.193710539</v>
       </c>
       <c r="AF5" t="n">
         <v>6.675932195879755e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.39973958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>696578.9319061493</v>
+        <v>851777.7071529413</v>
       </c>
     </row>
   </sheetData>
@@ -6702,28 +6702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1484.135337940117</v>
+        <v>1718.34189215614</v>
       </c>
       <c r="AB2" t="n">
-        <v>2030.659444799754</v>
+        <v>2351.111184742061</v>
       </c>
       <c r="AC2" t="n">
-        <v>1836.856157436496</v>
+        <v>2126.72443307555</v>
       </c>
       <c r="AD2" t="n">
-        <v>1484135.337940117</v>
+        <v>1718341.89215614</v>
       </c>
       <c r="AE2" t="n">
-        <v>2030659.444799754</v>
+        <v>2351111.18474206</v>
       </c>
       <c r="AF2" t="n">
         <v>3.403811838057481e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.0703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1836856.157436496</v>
+        <v>2126724.43307555</v>
       </c>
     </row>
     <row r="3">
@@ -6808,28 +6808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>774.2266305118308</v>
+        <v>930.3978247213889</v>
       </c>
       <c r="AB3" t="n">
-        <v>1059.331032334583</v>
+        <v>1273.011350038932</v>
       </c>
       <c r="AC3" t="n">
-        <v>958.2299653890117</v>
+        <v>1151.516933473867</v>
       </c>
       <c r="AD3" t="n">
-        <v>774226.6305118308</v>
+        <v>930397.824721389</v>
       </c>
       <c r="AE3" t="n">
-        <v>1059331.032334583</v>
+        <v>1273011.350038932</v>
       </c>
       <c r="AF3" t="n">
         <v>5.213763555850302e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.72916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>958229.9653890117</v>
+        <v>1151516.933473867</v>
       </c>
     </row>
     <row r="4">
@@ -6914,28 +6914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>632.2625380297227</v>
+        <v>759.1462383388246</v>
       </c>
       <c r="AB4" t="n">
-        <v>865.0894979868237</v>
+        <v>1038.697374463528</v>
       </c>
       <c r="AC4" t="n">
-        <v>782.5265704596968</v>
+        <v>939.565554865649</v>
       </c>
       <c r="AD4" t="n">
-        <v>632262.5380297226</v>
+        <v>759146.2383388246</v>
       </c>
       <c r="AE4" t="n">
-        <v>865089.4979868238</v>
+        <v>1038697.374463528</v>
       </c>
       <c r="AF4" t="n">
         <v>5.931197504363502e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.01822916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>782526.5704596968</v>
+        <v>939565.554865649</v>
       </c>
     </row>
     <row r="5">
@@ -7020,28 +7020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>588.5884928104605</v>
+        <v>715.4380277007816</v>
       </c>
       <c r="AB5" t="n">
-        <v>805.3327425549386</v>
+        <v>978.8938723983946</v>
       </c>
       <c r="AC5" t="n">
-        <v>728.4729158970977</v>
+        <v>885.46961510287</v>
       </c>
       <c r="AD5" t="n">
-        <v>588588.4928104605</v>
+        <v>715438.0277007816</v>
       </c>
       <c r="AE5" t="n">
-        <v>805332.7425549385</v>
+        <v>978893.8723983946</v>
       </c>
       <c r="AF5" t="n">
         <v>6.162548417434654e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.00260416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>728472.9158970977</v>
+        <v>885469.6151028699</v>
       </c>
     </row>
     <row r="6">
@@ -7126,28 +7126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>579.1334161305861</v>
+        <v>715.7447749678211</v>
       </c>
       <c r="AB6" t="n">
-        <v>792.3958895129906</v>
+        <v>979.3135775418924</v>
       </c>
       <c r="AC6" t="n">
-        <v>716.7707379524859</v>
+        <v>885.8492641765322</v>
       </c>
       <c r="AD6" t="n">
-        <v>579133.4161305861</v>
+        <v>715744.7749678211</v>
       </c>
       <c r="AE6" t="n">
-        <v>792395.8895129906</v>
+        <v>979313.5775418924</v>
       </c>
       <c r="AF6" t="n">
         <v>6.169193603235634e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.9765625</v>
       </c>
       <c r="AH6" t="n">
-        <v>716770.7379524859</v>
+        <v>885849.2641765322</v>
       </c>
     </row>
   </sheetData>
@@ -7423,28 +7423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>759.8112705697455</v>
+        <v>921.6468843862485</v>
       </c>
       <c r="AB2" t="n">
-        <v>1039.607300901025</v>
+        <v>1261.037927408153</v>
       </c>
       <c r="AC2" t="n">
-        <v>940.3886392010415</v>
+        <v>1140.686237494165</v>
       </c>
       <c r="AD2" t="n">
-        <v>759811.2705697455</v>
+        <v>921646.8843862485</v>
       </c>
       <c r="AE2" t="n">
-        <v>1039607.300901025</v>
+        <v>1261037.927408153</v>
       </c>
       <c r="AF2" t="n">
         <v>5.962481098591152e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.50260416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>940388.6392010415</v>
+        <v>1140686.237494165</v>
       </c>
     </row>
     <row r="3">
@@ -7529,28 +7529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>544.9965807252969</v>
+        <v>678.1714833476965</v>
       </c>
       <c r="AB3" t="n">
-        <v>745.6883653005847</v>
+        <v>927.9041423306004</v>
       </c>
       <c r="AC3" t="n">
-        <v>674.5209142964899</v>
+        <v>839.3462733082102</v>
       </c>
       <c r="AD3" t="n">
-        <v>544996.5807252969</v>
+        <v>678171.4833476965</v>
       </c>
       <c r="AE3" t="n">
-        <v>745688.3653005847</v>
+        <v>927904.1423306004</v>
       </c>
       <c r="AF3" t="n">
         <v>7.341034465336895e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.20703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>674520.9142964899</v>
+        <v>839346.2733082102</v>
       </c>
     </row>
     <row r="4">
@@ -7635,28 +7635,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>546.6111151775617</v>
+        <v>679.7860177999614</v>
       </c>
       <c r="AB4" t="n">
-        <v>747.8974425664067</v>
+        <v>930.1132195964224</v>
       </c>
       <c r="AC4" t="n">
-        <v>676.5191603285214</v>
+        <v>841.3445193402415</v>
       </c>
       <c r="AD4" t="n">
-        <v>546611.1151775618</v>
+        <v>679786.0177999614</v>
       </c>
       <c r="AE4" t="n">
-        <v>747897.4425664067</v>
+        <v>930113.2195964224</v>
       </c>
       <c r="AF4" t="n">
         <v>7.341648110280916e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.20703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>676519.1603285214</v>
+        <v>841344.5193402416</v>
       </c>
     </row>
   </sheetData>
@@ -7932,28 +7932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>574.473707161427</v>
+        <v>715.4877076911293</v>
       </c>
       <c r="AB2" t="n">
-        <v>786.020270129536</v>
+        <v>978.9618467529149</v>
       </c>
       <c r="AC2" t="n">
-        <v>711.0035987347503</v>
+        <v>885.5311020803972</v>
       </c>
       <c r="AD2" t="n">
-        <v>574473.707161427</v>
+        <v>715487.7076911293</v>
       </c>
       <c r="AE2" t="n">
-        <v>786020.270129536</v>
+        <v>978961.8467529148</v>
       </c>
       <c r="AF2" t="n">
         <v>7.652298242487925e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.68098958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>711003.5987347503</v>
+        <v>885531.1020803972</v>
       </c>
     </row>
     <row r="3">
@@ -8038,28 +8038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>539.278788472118</v>
+        <v>680.1571383565541</v>
       </c>
       <c r="AB3" t="n">
-        <v>737.8650296885942</v>
+        <v>930.6210031146359</v>
       </c>
       <c r="AC3" t="n">
-        <v>667.4442268551875</v>
+        <v>841.8038407121554</v>
       </c>
       <c r="AD3" t="n">
-        <v>539278.788472118</v>
+        <v>680157.1383565541</v>
       </c>
       <c r="AE3" t="n">
-        <v>737865.0296885942</v>
+        <v>930621.0031146358</v>
       </c>
       <c r="AF3" t="n">
         <v>7.986174845846224e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.44401041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>667444.2268551874</v>
+        <v>841803.8407121554</v>
       </c>
     </row>
   </sheetData>
@@ -13748,28 +13748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>539.2180667572063</v>
+        <v>688.0452146020816</v>
       </c>
       <c r="AB2" t="n">
-        <v>737.7819475593991</v>
+        <v>941.41381703113</v>
       </c>
       <c r="AC2" t="n">
-        <v>667.3690739677963</v>
+        <v>851.5666036162689</v>
       </c>
       <c r="AD2" t="n">
-        <v>539218.0667572063</v>
+        <v>688045.2146020816</v>
       </c>
       <c r="AE2" t="n">
-        <v>737781.9475593991</v>
+        <v>941413.81703113</v>
       </c>
       <c r="AF2" t="n">
         <v>8.506485495326444e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.98697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>667369.0739677963</v>
+        <v>851566.603616269</v>
       </c>
     </row>
     <row r="3">
@@ -13854,28 +13854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>541.33243868367</v>
+        <v>690.1595865285452</v>
       </c>
       <c r="AB3" t="n">
-        <v>740.6749245086929</v>
+        <v>944.3067939804237</v>
       </c>
       <c r="AC3" t="n">
-        <v>669.985949257368</v>
+        <v>854.1834789058407</v>
       </c>
       <c r="AD3" t="n">
-        <v>541332.43868367</v>
+        <v>690159.5865285452</v>
       </c>
       <c r="AE3" t="n">
-        <v>740674.9245086929</v>
+        <v>944306.7939804237</v>
       </c>
       <c r="AF3" t="n">
         <v>8.509228132628608e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.97395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>669985.949257368</v>
+        <v>854183.4789058408</v>
       </c>
     </row>
   </sheetData>
@@ -14151,28 +14151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>612.2459242293446</v>
+        <v>785.3468671756686</v>
       </c>
       <c r="AB2" t="n">
-        <v>837.7018839144699</v>
+        <v>1074.546230728263</v>
       </c>
       <c r="AC2" t="n">
-        <v>757.7527918356504</v>
+        <v>971.9930466026642</v>
       </c>
       <c r="AD2" t="n">
-        <v>612245.9242293446</v>
+        <v>785346.8671756686</v>
       </c>
       <c r="AE2" t="n">
-        <v>837701.88391447</v>
+        <v>1074546.230728264</v>
       </c>
       <c r="AF2" t="n">
         <v>9.249326248872213e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.47135416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>757752.7918356505</v>
+        <v>971993.0466026642</v>
       </c>
     </row>
   </sheetData>
@@ -14448,28 +14448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>989.8066347656281</v>
+        <v>1172.52758361005</v>
       </c>
       <c r="AB2" t="n">
-        <v>1354.297104873184</v>
+        <v>1604.303968161462</v>
       </c>
       <c r="AC2" t="n">
-        <v>1225.044889952011</v>
+        <v>1451.191449094893</v>
       </c>
       <c r="AD2" t="n">
-        <v>989806.6347656281</v>
+        <v>1172527.58361005</v>
       </c>
       <c r="AE2" t="n">
-        <v>1354297.104873184</v>
+        <v>1604303.968161462</v>
       </c>
       <c r="AF2" t="n">
         <v>4.76310641279262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.05338541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1225044.889952011</v>
+        <v>1451191.449094893</v>
       </c>
     </row>
     <row r="3">
@@ -14554,28 +14554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>593.0112054807838</v>
+        <v>727.6972981718245</v>
       </c>
       <c r="AB3" t="n">
-        <v>811.3840931467872</v>
+        <v>995.6675470977181</v>
       </c>
       <c r="AC3" t="n">
-        <v>733.9467340815842</v>
+        <v>900.6424338308904</v>
       </c>
       <c r="AD3" t="n">
-        <v>593011.2054807838</v>
+        <v>727697.2981718245</v>
       </c>
       <c r="AE3" t="n">
-        <v>811384.0931467873</v>
+        <v>995667.5470977181</v>
       </c>
       <c r="AF3" t="n">
         <v>6.569245185802469e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.59114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>733946.7340815841</v>
+        <v>900642.4338308903</v>
       </c>
     </row>
     <row r="4">
@@ -14660,28 +14660,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>555.7403499627878</v>
+        <v>690.3922772350478</v>
       </c>
       <c r="AB4" t="n">
-        <v>760.3884643529668</v>
+        <v>944.6251716706497</v>
       </c>
       <c r="AC4" t="n">
-        <v>687.8180565270313</v>
+        <v>854.4714710761575</v>
       </c>
       <c r="AD4" t="n">
-        <v>555740.3499627878</v>
+        <v>690392.2772350478</v>
       </c>
       <c r="AE4" t="n">
-        <v>760388.4643529669</v>
+        <v>944625.1716706497</v>
       </c>
       <c r="AF4" t="n">
         <v>6.818674954701486e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.58203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>687818.0565270314</v>
+        <v>854471.4710761575</v>
       </c>
     </row>
   </sheetData>
@@ -14957,28 +14957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1370.215409610871</v>
+        <v>1594.049486622464</v>
       </c>
       <c r="AB2" t="n">
-        <v>1874.789173067144</v>
+        <v>2181.048832096951</v>
       </c>
       <c r="AC2" t="n">
-        <v>1695.861925672746</v>
+        <v>1972.892592682879</v>
       </c>
       <c r="AD2" t="n">
-        <v>1370215.409610871</v>
+        <v>1594049.486622464</v>
       </c>
       <c r="AE2" t="n">
-        <v>1874789.173067145</v>
+        <v>2181048.832096951</v>
       </c>
       <c r="AF2" t="n">
         <v>3.631045369447012e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.10416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1695861.925672746</v>
+        <v>1972892.592682879</v>
       </c>
     </row>
     <row r="3">
@@ -15063,28 +15063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>741.9937728784438</v>
+        <v>887.9713849651382</v>
       </c>
       <c r="AB3" t="n">
-        <v>1015.228614507265</v>
+        <v>1214.961623442007</v>
       </c>
       <c r="AC3" t="n">
-        <v>918.3366204210004</v>
+        <v>1099.00739131005</v>
       </c>
       <c r="AD3" t="n">
-        <v>741993.7728784438</v>
+        <v>887971.3849651382</v>
       </c>
       <c r="AE3" t="n">
-        <v>1015228.614507265</v>
+        <v>1214961.623442007</v>
       </c>
       <c r="AF3" t="n">
         <v>5.448203093651045e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.05859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>918336.6204210004</v>
+        <v>1099007.39131005</v>
       </c>
     </row>
     <row r="4">
@@ -15169,28 +15169,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>600.1915624562048</v>
+        <v>736.466000138863</v>
       </c>
       <c r="AB4" t="n">
-        <v>821.2085743355511</v>
+        <v>1007.665271976848</v>
       </c>
       <c r="AC4" t="n">
-        <v>742.8335805744383</v>
+        <v>911.495112686469</v>
       </c>
       <c r="AD4" t="n">
-        <v>600191.5624562048</v>
+        <v>736466.000138863</v>
       </c>
       <c r="AE4" t="n">
-        <v>821208.5743355511</v>
+        <v>1007665.271976848</v>
       </c>
       <c r="AF4" t="n">
         <v>6.146239179568292e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.64713541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>742833.5805744383</v>
+        <v>911495.112686469</v>
       </c>
     </row>
     <row r="5">
@@ -15275,28 +15275,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>580.611545688814</v>
+        <v>707.1165001895887</v>
       </c>
       <c r="AB5" t="n">
-        <v>794.418331585032</v>
+        <v>967.5079913376966</v>
       </c>
       <c r="AC5" t="n">
-        <v>718.6001609916868</v>
+        <v>875.1703865504205</v>
       </c>
       <c r="AD5" t="n">
-        <v>580611.545688814</v>
+        <v>707116.5001895886</v>
       </c>
       <c r="AE5" t="n">
-        <v>794418.3315850319</v>
+        <v>967507.9913376966</v>
       </c>
       <c r="AF5" t="n">
         <v>6.282827862326152e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.06770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>718600.1609916869</v>
+        <v>875170.3865504205</v>
       </c>
     </row>
   </sheetData>
@@ -15572,28 +15572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>701.3337903312807</v>
+        <v>908.9478547216736</v>
       </c>
       <c r="AB2" t="n">
-        <v>959.5958325944061</v>
+        <v>1243.662554779432</v>
       </c>
       <c r="AC2" t="n">
-        <v>868.0133531328049</v>
+        <v>1124.969146042641</v>
       </c>
       <c r="AD2" t="n">
-        <v>701333.7903312808</v>
+        <v>908947.8547216736</v>
       </c>
       <c r="AE2" t="n">
-        <v>959595.8325944061</v>
+        <v>1243662.554779432</v>
       </c>
       <c r="AF2" t="n">
         <v>9.105917685727467e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.6328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>868013.353132805</v>
+        <v>1124969.146042641</v>
       </c>
     </row>
   </sheetData>
@@ -15869,28 +15869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>628.3434319870008</v>
+        <v>779.3989923364526</v>
       </c>
       <c r="AB2" t="n">
-        <v>859.7272042004159</v>
+        <v>1066.40808597153</v>
       </c>
       <c r="AC2" t="n">
-        <v>777.6760464662372</v>
+        <v>964.6315949595552</v>
       </c>
       <c r="AD2" t="n">
-        <v>628343.4319870009</v>
+        <v>779398.9923364526</v>
       </c>
       <c r="AE2" t="n">
-        <v>859727.204200416</v>
+        <v>1066408.08597153</v>
       </c>
       <c r="AF2" t="n">
         <v>7.031419512033825e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.80078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>777676.0464662372</v>
+        <v>964631.5949595552</v>
       </c>
     </row>
     <row r="3">
@@ -15975,28 +15975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>534.0783385232315</v>
+        <v>675.656625593388</v>
       </c>
       <c r="AB3" t="n">
-        <v>730.7495446408683</v>
+        <v>924.4632030034617</v>
       </c>
       <c r="AC3" t="n">
-        <v>661.0078337137705</v>
+        <v>836.2337324010649</v>
       </c>
       <c r="AD3" t="n">
-        <v>534078.3385232316</v>
+        <v>675656.625593388</v>
       </c>
       <c r="AE3" t="n">
-        <v>730749.5446408683</v>
+        <v>924463.2030034617</v>
       </c>
       <c r="AF3" t="n">
         <v>7.755687327396856e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.9296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>661007.8337137705</v>
+        <v>836233.7324010649</v>
       </c>
     </row>
   </sheetData>
@@ -16272,28 +16272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>824.6545920036842</v>
+        <v>996.6094896691028</v>
       </c>
       <c r="AB2" t="n">
-        <v>1128.328793972385</v>
+        <v>1363.605071072894</v>
       </c>
       <c r="AC2" t="n">
-        <v>1020.642677495068</v>
+        <v>1233.464516921434</v>
       </c>
       <c r="AD2" t="n">
-        <v>824654.5920036843</v>
+        <v>996609.4896691028</v>
       </c>
       <c r="AE2" t="n">
-        <v>1128328.793972385</v>
+        <v>1363605.071072894</v>
       </c>
       <c r="AF2" t="n">
         <v>5.524293301464548e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.90885416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1020642.677495068</v>
+        <v>1233464.516921434</v>
       </c>
     </row>
     <row r="3">
@@ -16378,28 +16378,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>555.0348705286729</v>
+        <v>688.7026565898983</v>
       </c>
       <c r="AB3" t="n">
-        <v>759.4231962676547</v>
+        <v>942.3133581631544</v>
       </c>
       <c r="AC3" t="n">
-        <v>686.9449122730191</v>
+        <v>852.3802938051668</v>
       </c>
       <c r="AD3" t="n">
-        <v>555034.8705286728</v>
+        <v>688702.6565898983</v>
       </c>
       <c r="AE3" t="n">
-        <v>759423.1962676547</v>
+        <v>942313.3581631543</v>
       </c>
       <c r="AF3" t="n">
         <v>7.121029728689661e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.08333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>686944.9122730191</v>
+        <v>852380.2938051668</v>
       </c>
     </row>
     <row r="4">
@@ -16484,28 +16484,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>543.3683369432598</v>
+        <v>677.1034428121897</v>
       </c>
       <c r="AB4" t="n">
-        <v>743.4605303249558</v>
+        <v>926.442802151297</v>
       </c>
       <c r="AC4" t="n">
-        <v>672.5057007641492</v>
+        <v>838.0244013846158</v>
       </c>
       <c r="AD4" t="n">
-        <v>543368.3369432598</v>
+        <v>677103.4428121897</v>
       </c>
       <c r="AE4" t="n">
-        <v>743460.5303249558</v>
+        <v>926442.802151297</v>
       </c>
       <c r="AF4" t="n">
         <v>7.153616186388133e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.95963541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>672505.7007641492</v>
+        <v>838024.4013846158</v>
       </c>
     </row>
   </sheetData>
